--- a/REVER_DailyTracker_20200824.xlsx
+++ b/REVER_DailyTracker_20200824.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\August\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FBABF8-599A-44E4-8C2F-F4926ACB60B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1792DD50-85C2-4F9F-AE86-837B536FF8BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="132">
   <si>
     <t>Task</t>
   </si>
@@ -475,6 +469,12 @@
   </si>
   <si>
     <t>2. Integration work is work in progress for OutboundList task</t>
+  </si>
+  <si>
+    <t>VASTU</t>
+  </si>
+  <si>
+    <t>Testing Issues Fix, Vastu Master Log</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +505,28 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -583,10 +605,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -625,9 +650,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{445BDFDF-51D7-4772-B35C-951C562E3E61}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -942,22 +975,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+    <sheetView topLeftCell="A253" workbookViewId="0">
       <selection activeCell="G279" sqref="G279"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -978,7 +1011,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1021,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1001,7 +1034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -1012,10 +1045,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -1029,9 +1062,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -1045,9 +1078,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1061,8 +1094,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -1079,19 +1112,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -1109,13 +1142,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1129,7 +1162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1143,7 +1176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1151,7 +1184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1159,12 +1192,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1172,7 +1205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1183,7 +1216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1194,7 +1227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1205,12 +1238,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1221,7 +1254,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1232,12 +1265,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1245,7 +1278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1253,7 +1286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1261,7 +1294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1269,12 +1302,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1282,7 +1315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1290,7 +1323,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1298,7 +1331,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1306,12 +1339,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1319,7 +1352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1327,7 +1360,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1335,7 +1368,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1343,7 +1376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1351,12 +1384,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1364,7 +1397,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1372,7 +1405,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1380,7 +1413,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1388,7 +1421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1396,12 +1429,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1409,7 +1442,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1417,7 +1450,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1425,7 +1458,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1433,7 +1466,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1441,7 +1474,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1449,7 +1482,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1457,12 +1490,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1470,7 +1503,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1478,12 +1511,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1491,22 +1524,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1514,7 +1547,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:7" ht="30">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1522,7 +1555,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:7">
       <c r="D173" t="s">
         <v>30</v>
       </c>
@@ -1530,7 +1563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:7">
       <c r="D177" t="s">
         <v>30</v>
       </c>
@@ -1538,12 +1571,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:7">
       <c r="G178" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:7" ht="45">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1551,7 +1584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:7">
       <c r="D184" t="s">
         <v>30</v>
       </c>
@@ -1559,7 +1592,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:7">
       <c r="D186" t="s">
         <v>85</v>
       </c>
@@ -1567,17 +1600,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:7">
       <c r="G187" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:7">
       <c r="G188" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:7">
       <c r="D190" t="s">
         <v>85</v>
       </c>
@@ -1585,7 +1618,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:7">
       <c r="D193" t="s">
         <v>85</v>
       </c>
@@ -1593,17 +1626,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:7">
       <c r="G194" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:7">
       <c r="D196" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:7">
       <c r="D199" t="s">
         <v>85</v>
       </c>
@@ -1611,12 +1644,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:7">
       <c r="G200" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:7">
       <c r="D203" t="s">
         <v>85</v>
       </c>
@@ -1624,27 +1657,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:7">
       <c r="G204" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="207" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:7">
       <c r="D207" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:7">
       <c r="G208" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:7">
       <c r="G209" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:7">
       <c r="D211" t="s">
         <v>85</v>
       </c>
@@ -1652,12 +1685,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:7">
       <c r="G212" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="216" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:7" ht="60">
       <c r="D216" t="s">
         <v>85</v>
       </c>
@@ -1665,7 +1698,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:7">
       <c r="D220" t="s">
         <v>85</v>
       </c>
@@ -1673,12 +1706,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:7">
       <c r="G221" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:7">
       <c r="D225" t="s">
         <v>85</v>
       </c>
@@ -1686,7 +1719,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="228" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:7">
       <c r="D228" t="s">
         <v>85</v>
       </c>
@@ -1694,12 +1727,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:7">
       <c r="G229" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="231" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:7">
       <c r="D231" t="s">
         <v>105</v>
       </c>
@@ -1707,7 +1740,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="234" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:7">
       <c r="D234" t="s">
         <v>107</v>
       </c>
@@ -1715,7 +1748,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="236" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:7">
       <c r="D236" t="s">
         <v>108</v>
       </c>
@@ -1723,17 +1756,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="237" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:7">
       <c r="G237" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="238" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:7">
       <c r="G238" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="241" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:7">
       <c r="D241" t="s">
         <v>105</v>
       </c>
@@ -1741,12 +1774,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="242" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:7">
       <c r="G242" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="245" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:7">
       <c r="D245" t="s">
         <v>108</v>
       </c>
@@ -1754,7 +1787,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="248" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:7">
       <c r="D248" t="s">
         <v>108</v>
       </c>
@@ -1762,12 +1795,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="249" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:7">
       <c r="G249" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="252" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:7">
       <c r="D252" t="s">
         <v>108</v>
       </c>
@@ -1775,17 +1808,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="253" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:7">
       <c r="G253" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="254" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:7">
       <c r="G254" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:7">
       <c r="D257" t="s">
         <v>121</v>
       </c>
@@ -1793,7 +1826,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="260" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:7">
       <c r="D260" t="s">
         <v>108</v>
       </c>
@@ -1801,12 +1834,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="261" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:7">
       <c r="G261" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="264" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:7">
       <c r="D264" t="s">
         <v>108</v>
       </c>
@@ -1814,7 +1847,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="267" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:7">
       <c r="D267" t="s">
         <v>108</v>
       </c>
@@ -1822,7 +1855,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="271" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:7">
       <c r="D271" t="s">
         <v>108</v>
       </c>
@@ -1830,7 +1863,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="275" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:7">
       <c r="D275" t="s">
         <v>108</v>
       </c>
@@ -1838,7 +1871,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="276" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:7">
       <c r="G276" t="s">
         <v>129</v>
       </c>
@@ -1858,18 +1891,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1892,7 +1925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1901,7 +1934,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1910,46 +1943,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1966,22 +1999,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2004,16 +2037,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>44067</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>131</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2022,46 +2063,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2082,18 +2123,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2116,7 +2157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2125,7 +2166,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2134,46 +2175,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2194,18 +2235,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2228,7 +2269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2237,7 +2278,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2246,46 +2287,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2306,18 +2347,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2340,7 +2381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2361,7 +2402,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2370,46 +2411,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2430,18 +2471,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2464,7 +2505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2473,7 +2514,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2482,46 +2523,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2542,18 +2583,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2576,7 +2617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2585,7 +2626,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2594,46 +2635,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2654,18 +2695,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2688,7 +2729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2697,7 +2738,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2706,46 +2747,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2766,18 +2807,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2800,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2809,7 +2850,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2818,46 +2859,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200824.xlsx
+++ b/REVER_DailyTracker_20200824.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1792DD50-85C2-4F9F-AE86-837B536FF8BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C15407-9FB2-4383-81A7-C3E6B8DE0D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="134">
   <si>
     <t>Task</t>
   </si>
@@ -475,6 +475,12 @@
   </si>
   <si>
     <t>Testing Issues Fix, Vastu Master Log</t>
+  </si>
+  <si>
+    <t>Invoice Update OW sequence error</t>
+  </si>
+  <si>
+    <t>GSPN site displaying differently</t>
   </si>
 </sst>
 </file>
@@ -979,15 +985,15 @@
       <selection activeCell="G279" sqref="G279"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1022,7 +1028,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1048,7 +1054,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -1080,7 +1086,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1205,7 +1211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1216,7 +1222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1243,7 +1249,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1286,7 +1292,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1323,7 +1329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1339,12 +1345,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1360,7 +1366,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45">
+    <row r="97" spans="4:7" ht="43.2">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60">
+    <row r="100" spans="4:7" ht="43.2">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30">
+    <row r="108" spans="4:7" ht="28.8">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1405,7 +1411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="45">
+    <row r="116" spans="4:7" ht="28.8">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="30">
+    <row r="123" spans="4:7" ht="28.8">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1434,7 +1440,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="30">
+    <row r="126" spans="4:7" ht="28.8">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="30">
+    <row r="129" spans="4:7" ht="28.8">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1458,7 +1464,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="45">
+    <row r="135" spans="4:7" ht="28.8">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="60">
+    <row r="139" spans="4:7" ht="43.2">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1474,7 +1480,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="75">
+    <row r="143" spans="4:7" ht="43.2">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1495,7 +1501,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="45">
+    <row r="150" spans="4:7" ht="43.2">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="30">
+    <row r="168" spans="4:7" ht="28.8">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="45">
+    <row r="181" spans="4:7" ht="28.8">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="216" spans="4:7" ht="60">
+    <row r="216" spans="4:7" ht="43.2">
       <c r="D216" t="s">
         <v>85</v>
       </c>
@@ -1891,15 +1897,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1999,19 +2005,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2037,7 +2043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2123,15 +2129,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2231,19 +2237,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2273,10 +2279,16 @@
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.8</v>
+      </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -2347,15 +2359,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2471,15 +2483,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2583,15 +2595,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2695,15 +2707,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2807,15 +2819,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
